--- a/drive_accuracy_stats_2010_to_2019.xlsx
+++ b/drive_accuracy_stats_2010_to_2019.xlsx
@@ -610,10 +610,10 @@
     <t>Graham DeLaet</t>
   </si>
   <si>
+    <t>Jason Bohn</t>
+  </si>
+  <si>
     <t>Daniel Summerhays</t>
-  </si>
-  <si>
-    <t>Jason Bohn</t>
   </si>
   <si>
     <t>Miguel Angel Carballo</t>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="B78">
         <v>78</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B115">
         <v>115</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="B120">
         <v>120</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="B117">
         <v>117</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -12808,7 +12808,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="B107">
         <v>107</v>
@@ -12816,7 +12816,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="B108">
         <v>107</v>
